--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1403739.052022119</v>
+        <v>1461410.489105883</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004884</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760743</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6978021.696236893</v>
+        <v>7438274.949130568</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>181.1132274164773</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>197.514800330433</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>148.122637607009</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -871,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>198.6112498969839</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>260.9830920139142</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>130.3832198012687</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>55.47301062167629</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>258.0916905248119</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>341.8278835301728</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>239.6352666717399</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>265.3439815931926</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1385,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>52.29508283030897</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.2936858927014</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348149</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.9059542963559</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.7612727945936</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>52.92260257517076</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>223.2003349611181</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>167.6268140129328</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>91.02068200355116</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>123.9760589093823</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>157.7752251943815</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>121.9332546069154</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,10 +3483,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3512,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024942</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.903756445555</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>157.6386052024379</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
-        <v>185.6333903616127</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>168.9733955350581</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3961,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>72.51017950359382</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>86.84298537427205</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.12459838203694</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432924</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.9297397222204</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4334,16 +4336,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>44.49822504924753</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>549.9383681074144</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1716.675733424112</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>1359.186318550362</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W2" t="n">
-        <v>962.7949688507088</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X2" t="n">
-        <v>551.074970018456</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.7376999733464</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233694</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>695.3677541233694</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>695.3677541233694</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1246.033289107808</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1796.698824092246</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1105.325610318066</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1764.398243894585</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1764.398243894585</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1521.83434734039</v>
+        <v>727.0325000370631</v>
       </c>
       <c r="Y4" t="n">
-        <v>1295.491579030132</v>
+        <v>500.6897317268051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>774.7291026788682</v>
+        <v>679.4834592704411</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163286</v>
+        <v>656.6231333241453</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>637.3709165495496</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>211.3939766974072</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.577466970398</v>
+        <v>695.2914195215671</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>288.0630618008172</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C7" t="n">
-        <v>288.0630618008172</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>100.5315691115468</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>100.5315691115468</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>100.5315691115468</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>100.5315691115468</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1503.699566596794</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V7" t="n">
-        <v>1221.988099204823</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W7" t="n">
-        <v>947.1356953773358</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X7" t="n">
-        <v>704.5717988231409</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.2290305128828</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.594331807357</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X8" t="n">
-        <v>1195.874332975104</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>907.0953397585014</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4984,19 +4986,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1786.751981150003</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
         <v>1786.751981150003</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.080935154279</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>376.6972081420155</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>376.6972081420155</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.138820539818</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M11" t="n">
-        <v>1977.580432937621</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N11" t="n">
-        <v>2778.022045335425</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O11" t="n">
-        <v>2778.022045335425</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335425</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.75261543602</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2975.75261543602</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2922.929299445809</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.929299445809</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2922.929299445809</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>608.7826918167196</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N12" t="n">
-        <v>1409.224304214523</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2198.056564597094</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2198.056564597094</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2044.891443082751</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.990713096051</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.990713096051</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1192.013773243908</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333087</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>970.9053941487015</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461987</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839608</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839608</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>3234.107524839608</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.716175139954</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2425.996176307702</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2044.891443082751</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>926.8645663447228</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>926.8645663447228</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M15" t="n">
-        <v>990.9088585947958</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>478.9271847585218</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C16" t="n">
-        <v>478.9271847585218</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D16" t="n">
-        <v>478.9271847585218</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E16" t="n">
-        <v>478.9271847585218</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>2017.414536547508</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="17">
@@ -5516,43 +5518,43 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5695,25 +5697,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563995</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563995</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.529878172024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.529878172024</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>1587.529878172024</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
         <v>1375.649804642131</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5832,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1067.07923602298</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>895.1066729018962</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>731.7899000286669</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>565.5816941815204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5938,22 +5940,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X22" t="n">
-        <v>1483.587973045304</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y22" t="n">
-        <v>1257.245204735046</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -6069,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6178,19 +6180,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3707.850527204922</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3535.877964083838</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3372.561191210609</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3206.352985363462</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4309.90040662566</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4140.580392471183</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3898.016495916987</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3898.016495916987</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6448,52 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808981</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1947.436310212987</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1947.436310212987</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.5839063855</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.020009831305</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3713.838560755145</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3541.865997634061</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4654.622661723635</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4372.911194331664</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4372.911194331664</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4130.347297777469</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3904.004529467211</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686964</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>4362.434577686964</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1073.111618887016</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1542.018283751469</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1299.454387197274</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1073.111618887016</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491874</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281033</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D40" t="n">
-        <v>208.2661037548741</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2468.184063897751</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.283333911051</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.990713096051</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333087</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227574</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267897</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>2660.465710453522</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453522</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.181953884241</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2655.692539010491</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2468.184063897751</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2468.184063897751</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2468.184063897751</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>272.4865562816959</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816959</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>981.6063033152612</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="C43" t="n">
-        <v>809.6337401941772</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="D43" t="n">
-        <v>646.3169673209479</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="E43" t="n">
-        <v>480.1087614738015</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F43" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2027.921517116229</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2027.921517116229</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1746.210049724257</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1471.35764589677</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1398.115040337585</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1171.772272027327</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2468.184063897751</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2041.283333911051</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.990713096051</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333087</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227574</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945951</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292398</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690201</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335425</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.75261543602</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.75261543602</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2975.75261543602</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2975.75261543602</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2888.032428189281</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>336.3796397763832</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N45" t="n">
-        <v>693.0265871760246</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
-        <v>693.0265871760246</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>904.2984362694593</v>
+        <v>1124.059229422212</v>
       </c>
       <c r="C46" t="n">
-        <v>732.3258731483753</v>
+        <v>952.0866663011282</v>
       </c>
       <c r="D46" t="n">
-        <v>569.009100275146</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>402.8008944279996</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>230.93912020256</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68215049679216</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.686253450462</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.686253450462</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>996.3434851402037</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104601</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4608596749575</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8231,13 +8233,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740228</v>
+        <v>379.7269667620468</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8453,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8465,10 +8467,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>98.52275580777439</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>344.5866843797515</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>572.6932868960931</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234436</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>549.1231770097748</v>
       </c>
       <c r="L14" t="n">
-        <v>814.1711708663669</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>87.78798480533101</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234436</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>617.2823097660786</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,7 +9178,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>500.1648957193109</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9410,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>763.430074865614</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661244</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>319.6051282303923</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>232.3026740201048</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>352.7420867043963</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
-        <v>381.5924700313612</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>340.1323533723476</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.99021145195718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.31806783256175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>117.2205539080144</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.93792262753482</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>104.4770657762793</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>186.3619220111476</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>37.70754623511468</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>12.47761229549167</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.61286918175956</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>59.64236734311993</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>12.50455128074731</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
-        <v>206.7940458410438</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>19.29091348988689</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>167.6280780850591</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.4409119703865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.13971064290806</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120463</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480234.9645742495</v>
+        <v>637756.1573839905</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480234.9645742495</v>
+        <v>637756.1573839905</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647661.7302058039</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647661.7302058038</v>
+        <v>647661.7302058039</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647661.7302058038</v>
+        <v>647661.7302058039</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647661.7302058039</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647661.7302058036</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647661.730205804</v>
+        <v>647661.7302058036</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480234.9645742495</v>
+        <v>637756.1573839905</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480234.9645742493</v>
+        <v>637756.1573839905</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080933</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519655</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
@@ -26338,22 +26340,22 @@
         <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="L2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="N2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="M2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="N2" t="n">
-        <v>407472.0422746493</v>
-      </c>
       <c r="O2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346226</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653739</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.6272498637</v>
       </c>
-      <c r="L4" t="n">
-        <v>72380.62724986371</v>
-      </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.3388391534</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26494,7 +26496,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14201.1156599712</v>
+        <v>-14201.11565997131</v>
       </c>
       <c r="C6" t="n">
         <v>172203.6177547659</v>
       </c>
       <c r="D6" t="n">
-        <v>172203.6177547659</v>
+        <v>172203.6177547661</v>
       </c>
       <c r="E6" t="n">
-        <v>124032.3117662101</v>
+        <v>46478.8717882187</v>
       </c>
       <c r="F6" t="n">
-        <v>199363.2629196724</v>
+        <v>253911.1594047797</v>
       </c>
       <c r="G6" t="n">
-        <v>128450.9530248151</v>
+        <v>249715.7307528743</v>
       </c>
       <c r="H6" t="n">
-        <v>257341.3528363555</v>
+        <v>257341.3528363557</v>
       </c>
       <c r="I6" t="n">
         <v>257341.3528363556</v>
@@ -26546,22 +26548,22 @@
         <v>111807.6829015392</v>
       </c>
       <c r="K6" t="n">
-        <v>257341.3528363555</v>
+        <v>257341.3528363557</v>
       </c>
       <c r="L6" t="n">
+        <v>257341.3528363556</v>
+      </c>
+      <c r="M6" t="n">
+        <v>84210.86163071607</v>
+      </c>
+      <c r="N6" t="n">
         <v>257341.3528363557</v>
       </c>
-      <c r="M6" t="n">
-        <v>194467.4158709818</v>
-      </c>
-      <c r="N6" t="n">
-        <v>257341.3528363559</v>
-      </c>
       <c r="O6" t="n">
-        <v>199363.2629196724</v>
+        <v>253911.1594047798</v>
       </c>
       <c r="P6" t="n">
-        <v>199363.2629196724</v>
+        <v>253911.1594047798</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943079</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>74.65813289307451</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>203.7690970142255</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.1301998828641</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>41.52700769166901</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>161.6486306729187</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>290.489720191225</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27789,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>43.2978719554505</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.29091348988686</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>80.8038391566601</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>161.6486306729187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28068,10 +28070,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>13.55037112485877</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28773,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>349.6900184701288</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>357.2118800478173</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>158.2737632597932</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.6058781505029</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>315.166724894165</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>549.5965063837651</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099019</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>513.3585762149655</v>
       </c>
       <c r="L14" t="n">
-        <v>775.859128433744</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>64.69120429300303</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099019</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>581.5177089712693</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,7 +35898,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>462.7739363632869</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36130,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>726.1504520311679</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439022</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>282.2141688743682</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>315.166724894165</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461410.489105883</v>
+        <v>1460692.498991025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760743</v>
+        <v>698313.6830760736</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -715,10 +715,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.514800330433</v>
+        <v>92.93922455516247</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0.805618920998063</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>198.6112498969839</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>130.3832198012687</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>230.7788055297376</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>55.47301062167629</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>228.4837816429808</v>
       </c>
       <c r="C8" t="n">
-        <v>341.8278835301728</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1305,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.8056189209971626</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>242.2241619026818</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>70.25326871312973</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>260.4446813871638</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>96.444205106868</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2003349611181</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>173.9126759166489</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>121.9332546069154</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>157.6386052024379</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.9733955350581</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432924</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>265.3439815931926</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.9074190595572</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728574</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.98568150701</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.98568150701</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.265682674757</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.755783351087</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.021068682275</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
         <v>1307.021068682275</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.5237630147394</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C4" t="n">
-        <v>310.5237630147394</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D4" t="n">
-        <v>310.5237630147394</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E4" t="n">
-        <v>310.5237630147394</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X4" t="n">
-        <v>727.0325000370631</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.6897317268051</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>679.4834592704411</v>
+        <v>1171.120452378521</v>
       </c>
       <c r="C5" t="n">
-        <v>656.6231333241453</v>
+        <v>744.2197223918213</v>
       </c>
       <c r="D5" t="n">
-        <v>637.3709165495496</v>
+        <v>320.9271015768215</v>
       </c>
       <c r="E5" t="n">
-        <v>211.3939766974072</v>
+        <v>298.9905657650831</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>277.9067879948875</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>277.6081296247401</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
+        <v>116.829168004879</v>
+      </c>
+      <c r="L5" t="n">
+        <v>116.829168004879</v>
+      </c>
+      <c r="M5" t="n">
         <v>667.4947029893171</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>667.4947029893171</v>
+      </c>
+      <c r="O5" t="n">
         <v>1218.160237973755</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1768.825772958194</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1768.825772958194</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1108.308284358525</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X5" t="n">
-        <v>696.5882855262728</v>
+        <v>1996.306086715161</v>
       </c>
       <c r="Y5" t="n">
-        <v>695.2914195215671</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
         <v>669.8354755761777</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7123380797772</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>266.7397749586933</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>266.7397749586933</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>100.5315691115468</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>100.5315691115468</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>100.5315691115468</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>100.5315691115468</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483783</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656296</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751021008</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.8783067918429</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.2469754669713</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
         <v>141.9662850324534</v>
@@ -4810,46 +4810,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1312.432609803611</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.0953397585014</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L9" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L9" t="n">
-        <v>1145.829295018124</v>
-      </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734694</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919694</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067552</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569519</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464006</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
         <v>100.0769448789901</v>
@@ -5044,25 +5044,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2396.59155273422</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3372.842611220921</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>4217.987261371733</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5071,22 +5071,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618962</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>936.8757529618962</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286538</v>
+        <v>873.2535930642349</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075698</v>
+        <v>701.2810299431509</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1342.160257928688</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509774</v>
+        <v>1099.596361374493</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407195</v>
+        <v>873.2535930642349</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>970.9053941487015</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>3957.244510860532</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5360,22 +5360,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>936.8757529618962</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>936.8757529618962</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.489499143503</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="C16" t="n">
-        <v>911.5169360224189</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="D16" t="n">
-        <v>748.2001631491896</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="E16" t="n">
-        <v>581.9919573020431</v>
+        <v>486.6978852863053</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1301830766035</v>
+        <v>314.8361110608657</v>
       </c>
       <c r="G16" t="n">
-        <v>243.8732133708357</v>
+        <v>314.8361110608657</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0769448789901</v>
+        <v>171.0398425690201</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2017.414536547508</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W16" t="n">
-        <v>1742.562132720021</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X16" t="n">
-        <v>1499.998236165826</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.655467855569</v>
+        <v>843.0720598455175</v>
       </c>
     </row>
     <row r="17">
@@ -5518,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1040.608704104281</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1970.233751723557</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2974.519853142615</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5545,16 +5545,16 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491885</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281045</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5685,40 +5685,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1759.191944545165</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1477.480477153194</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1202.628073325707</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>960.0641767715121</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>733.7214084612541</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5761,19 +5761,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1748.774177950213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.774177950213</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1748.774177950213</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2099.621208542961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.436760043265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.725292651294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.872888823807</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,22 +6071,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1529.586448057074</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6946,19 +6946,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>999.230634379212</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.5863609803849</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="C37" t="n">
-        <v>563.5863609803849</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D37" t="n">
-        <v>563.5863609803849</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.7631605785773</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>427.7905974574933</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>427.7905974574933</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>427.7905974574933</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>789.9291292906429</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7420,19 +7420,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7447,16 +7447,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>936.8757529618962</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>936.8757529618962</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>343.6417816305598</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="D43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="E43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
         <v>199.8455131387141</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,19 +7657,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7681,19 +7681,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1019.283297448028</v>
+        <v>103.2519119481319</v>
       </c>
       <c r="N45" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422212</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011282</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
         <v>847.9687314089136</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7987,22 +7987,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>547.9768619480852</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>185.9167539104601</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8218,10 +8218,10 @@
         <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8300,13 +8300,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>379.7269667620468</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8458,25 +8458,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>301.3352940721928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>98.52275580777439</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8692,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>251.9371478624388</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>502.8820865988766</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>549.1231770097748</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>634.0574361383012</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>617.2823097660786</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>185.6255543726317</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P24" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>699.2271871843856</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10670,10 +10670,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>391.0586418711355</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10837,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>951.5880457335786</v>
+        <v>26.30381795590558</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>29.8797178865303</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>28.51761386399706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>18.44967133088761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.239400037629</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,22 +24414,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.93792262753482</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>14.35163310829608</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25320,7 +25320,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>42.61286918175956</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>12.50455128074731</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.29091348988689</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120463</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>13.55037112485877</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647661.7302058038</v>
+        <v>647661.7302058039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647661.7302058039</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647661.7302058039</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647661.7302058036</v>
+        <v>647661.7302058038</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
-        <v>401240.9763519655</v>
+        <v>401240.9763519658</v>
       </c>
       <c r="F2" t="n">
-        <v>401240.9763519656</v>
+        <v>401240.9763519659</v>
       </c>
       <c r="G2" t="n">
         <v>407472.0422746492</v>
@@ -26334,28 +26334,28 @@
         <v>407472.0422746491</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="L2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="M2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="O2" t="n">
+        <v>401240.9763519658</v>
+      </c>
+      <c r="P2" t="n">
         <v>401240.9763519656</v>
-      </c>
-      <c r="P2" t="n">
-        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26423,22 +26423,22 @@
         <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>71271.33883915341</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="F4" t="n">
-        <v>71271.33883915341</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
@@ -26447,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
         <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>71271.3388391534</v>
+        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14201.11565997131</v>
+        <v>-14201.1156599712</v>
       </c>
       <c r="C6" t="n">
-        <v>172203.6177547659</v>
+        <v>172203.617754766</v>
       </c>
       <c r="D6" t="n">
-        <v>172203.6177547661</v>
+        <v>172203.617754766</v>
       </c>
       <c r="E6" t="n">
-        <v>46478.8717882187</v>
+        <v>46406.35469181857</v>
       </c>
       <c r="F6" t="n">
-        <v>253911.1594047797</v>
+        <v>253838.6423083796</v>
       </c>
       <c r="G6" t="n">
-        <v>249715.7307528743</v>
+        <v>249664.7000906901</v>
       </c>
       <c r="H6" t="n">
-        <v>257341.3528363557</v>
+        <v>257290.3221741715</v>
       </c>
       <c r="I6" t="n">
-        <v>257341.3528363556</v>
+        <v>257290.3221741715</v>
       </c>
       <c r="J6" t="n">
-        <v>111807.6829015392</v>
+        <v>111756.6522393549</v>
       </c>
       <c r="K6" t="n">
-        <v>257341.3528363557</v>
+        <v>257290.3221741713</v>
       </c>
       <c r="L6" t="n">
-        <v>257341.3528363556</v>
+        <v>257290.3221741712</v>
       </c>
       <c r="M6" t="n">
-        <v>84210.86163071607</v>
+        <v>84159.83096853177</v>
       </c>
       <c r="N6" t="n">
-        <v>257341.3528363557</v>
+        <v>257290.3221741713</v>
       </c>
       <c r="O6" t="n">
-        <v>253911.1594047798</v>
+        <v>253838.6423083795</v>
       </c>
       <c r="P6" t="n">
-        <v>253911.1594047798</v>
+        <v>253838.6423083793</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.7690970142255</v>
+        <v>308.3446727894961</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>276.5769850937007</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>41.52700769166901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>290.489720191225</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>64.11088921096788</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>43.2978719554505</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.1660990056339</v>
       </c>
       <c r="C8" t="n">
-        <v>80.8038391566601</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,10 +28067,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>276.5769850937016</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>162.8199733981321</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>357.2118800478173</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35178,25 +35178,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>162.8199733981322</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35412,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>214.3617860522075</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>513.3585762149655</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>596.4820743280699</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>581.5177089712693</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404443</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>163.8547131678031</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37557,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>928.4912652212506</v>
+        <v>3.207037443577605</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
